--- a/doc/AgeGrading_Track_Female_2023.xlsx
+++ b/doc/AgeGrading_Track_Female_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crouzier/private/mcrrc/site/race-team-records/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CC060-2F73-9444-9581-CF348D63FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B6CB8-D2CD-734E-9EA3-9CEFC2742DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="2040" windowWidth="32300" windowHeight="18480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="2160" windowWidth="32300" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Track women 2023" sheetId="5" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242FB819-F340-6D49-BCC6-6BAAE4F5AA3C}">
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:O109"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5838,8 +5838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A7D75-3BE2-6A41-95DE-FA457D92E5E2}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12132,8 +12132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03149F-1B30-B74E-8E23-D97745A564E4}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19:AE124"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/AgeGrading_Track_Female_2023.xlsx
+++ b/doc/AgeGrading_Track_Female_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crouzier/private/mcrrc/site/race-team-records/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B6CB8-D2CD-734E-9EA3-9CEFC2742DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640117C-C8F6-3742-BC36-432D590F099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="2160" windowWidth="32300" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="24">
   <si>
     <t>Age</t>
   </si>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242FB819-F340-6D49-BCC6-6BAAE4F5AA3C}">
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5786,6 +5786,9 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
       <c r="B109" t="s">
         <v>20</v>
       </c>
@@ -5838,7 +5841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A7D75-3BE2-6A41-95DE-FA457D92E5E2}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
       <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
